--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H2">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I2">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J2">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N2">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O2">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P2">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q2">
-        <v>1036.313817234143</v>
+        <v>1261.495286878706</v>
       </c>
       <c r="R2">
-        <v>1036.313817234143</v>
+        <v>11353.45758190835</v>
       </c>
       <c r="S2">
-        <v>0.1897401710797808</v>
+        <v>0.2020325738026728</v>
       </c>
       <c r="T2">
-        <v>0.1897401710797808</v>
+        <v>0.2020325738026728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H3">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I3">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J3">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N3">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q3">
-        <v>474.5557965418661</v>
+        <v>549.110582429376</v>
       </c>
       <c r="R3">
-        <v>474.5557965418661</v>
+        <v>4941.995241864383</v>
       </c>
       <c r="S3">
-        <v>0.08688709590215886</v>
+        <v>0.08794184601750188</v>
       </c>
       <c r="T3">
-        <v>0.08688709590215886</v>
+        <v>0.08794184601750188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H4">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I4">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J4">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N4">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q4">
-        <v>449.3749478525072</v>
+        <v>572.737929409506</v>
       </c>
       <c r="R4">
-        <v>449.3749478525072</v>
+        <v>5154.641364685554</v>
       </c>
       <c r="S4">
-        <v>0.08227669849280586</v>
+        <v>0.09172584249547165</v>
       </c>
       <c r="T4">
-        <v>0.08227669849280586</v>
+        <v>0.09172584249547165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H5">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I5">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J5">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N5">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O5">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P5">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q5">
-        <v>1049.480021828939</v>
+        <v>1110.485416324354</v>
       </c>
       <c r="R5">
-        <v>1049.480021828939</v>
+        <v>9994.368746919185</v>
       </c>
       <c r="S5">
-        <v>0.1921507902095685</v>
+        <v>0.1778478518024885</v>
       </c>
       <c r="T5">
-        <v>0.1921507902095685</v>
+        <v>0.1778478518024885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H6">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I6">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J6">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N6">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q6">
-        <v>480.5849535452846</v>
+        <v>483.378178325152</v>
       </c>
       <c r="R6">
-        <v>480.5849535452846</v>
+        <v>4350.403604926368</v>
       </c>
       <c r="S6">
-        <v>0.08799098283512351</v>
+        <v>0.07741458767452986</v>
       </c>
       <c r="T6">
-        <v>0.08799098283512351</v>
+        <v>0.07741458767452987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H7">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I7">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J7">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N7">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O7">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P7">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q7">
-        <v>455.0841861206922</v>
+        <v>504.177165464287</v>
       </c>
       <c r="R7">
-        <v>455.0841861206922</v>
+        <v>4537.594489178584</v>
       </c>
       <c r="S7">
-        <v>0.08332201104941328</v>
+        <v>0.08074561312338846</v>
       </c>
       <c r="T7">
-        <v>0.08332201104941328</v>
+        <v>0.08074561312338846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H8">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I8">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J8">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N8">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O8">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P8">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q8">
-        <v>801.646582118511</v>
+        <v>932.9562104517564</v>
       </c>
       <c r="R8">
-        <v>801.646582118511</v>
+        <v>8396.605894065808</v>
       </c>
       <c r="S8">
-        <v>0.1467746131597911</v>
+        <v>0.1494159719844277</v>
       </c>
       <c r="T8">
-        <v>0.1467746131597911</v>
+        <v>0.1494159719844278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H9">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I9">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J9">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N9">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O9">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P9">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q9">
-        <v>367.0953971622687</v>
+        <v>406.1022925974079</v>
       </c>
       <c r="R9">
-        <v>367.0953971622687</v>
+        <v>3654.920633376672</v>
       </c>
       <c r="S9">
-        <v>0.06721201850426714</v>
+        <v>0.06503860319892675</v>
       </c>
       <c r="T9">
-        <v>0.06721201850426714</v>
+        <v>0.06503860319892676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H10">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I10">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J10">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N10">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O10">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P10">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q10">
-        <v>347.6166051680218</v>
+        <v>423.576222409823</v>
       </c>
       <c r="R10">
-        <v>347.6166051680218</v>
+        <v>3812.186001688407</v>
       </c>
       <c r="S10">
-        <v>0.06364561876709098</v>
+        <v>0.06783710990059223</v>
       </c>
       <c r="T10">
-        <v>0.06364561876709098</v>
+        <v>0.06783710990059223</v>
       </c>
     </row>
   </sheetData>
